--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1976066.506010534</v>
+        <v>-1978954.4662807</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>227.9969626997662</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>226.4760917418162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>158.8969992949423</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.777525990011926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.59601561836874</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>354.580206355467</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>163.508901433313</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>9.461970681989468</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>159.9479264102627</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5254853410178</v>
+        <v>205.5892668667107</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>30.90733215174977</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.5490185293878</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>53.76947475493767</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.5792208656429</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>270.301880100052</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>122.819953127243</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>189.7956391420595</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.9504156453515</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>244.7511938164735</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541854</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445521</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1366.188433646014</v>
+        <v>1876.383874966816</v>
       </c>
       <c r="C2" t="n">
-        <v>997.225916705602</v>
+        <v>1507.421358026404</v>
       </c>
       <c r="D2" t="n">
-        <v>766.9259543826058</v>
+        <v>1149.155659419654</v>
       </c>
       <c r="E2" t="n">
-        <v>381.1377017843616</v>
+        <v>763.3674068214095</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4364,16 +4364,16 @@
         <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2262.983715030938</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2262.983715030938</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>2262.983715030938</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.188433646014</v>
+        <v>2262.983715030938</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4468,16 +4468,16 @@
         <v>210.7222632714565</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>60.60562385912075</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912075</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912075</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912075</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.3160057778002</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="C5" t="n">
-        <v>777.3160057778002</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0503071710497</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>419.0503071710497</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>412.1048064218463</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2059.592132130081</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>2059.592132130081</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753612</v>
+        <v>1686.126373869001</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.3160057778002</v>
+        <v>1686.126373869001</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>566.5654221758658</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="X7" t="n">
-        <v>566.5654221758658</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="Y7" t="n">
-        <v>566.5654221758658</v>
+        <v>63.50052796378816</v>
       </c>
     </row>
     <row r="8">
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,19 +4829,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
         <v>2136.714509620117</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.3533352745162</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="C10" t="n">
-        <v>239.4171523466092</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="D10" t="n">
-        <v>239.4171523466092</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="E10" t="n">
-        <v>239.4171523466092</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="F10" t="n">
-        <v>239.4171523466092</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>697.7705053114768</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>697.7705053114768</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V10" t="n">
-        <v>697.7705053114768</v>
+        <v>404.1982916552208</v>
       </c>
       <c r="W10" t="n">
-        <v>408.3533352745162</v>
+        <v>404.1982916552208</v>
       </c>
       <c r="X10" t="n">
-        <v>408.3533352745162</v>
+        <v>404.1982916552208</v>
       </c>
       <c r="Y10" t="n">
-        <v>408.3533352745162</v>
+        <v>404.1982916552208</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5130,7 +5130,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855603</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199801</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993914</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956953</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058936</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,10 +5601,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2255.856821118276</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2036.255356141217</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1747.180129485415</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1492.495641279528</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1203.078471242567</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5841,10 +5841,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.349778677406</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.274552021604</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1461.590063815717</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.172893778757</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>944.1833428807391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,13 +6075,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1949.83911739012</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580126</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345489</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,28 +6382,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,10 +6476,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6622,7 +6622,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311325</v>
@@ -6655,13 +6655,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580108</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942654</v>
@@ -7084,19 +7084,19 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7114,19 +7114,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,22 +7154,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7181,16 +7181,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,22 +7357,22 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384011</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-5.184030404968261e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-5.184030404968261e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6860789209167</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>271.5740434674721</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>168.8552591751926</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>149.5748732234264</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>232.4149996343065</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.005432486451923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>15.88259428919218</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.20633287440162</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>27.60981118522872</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.88156453658576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>41.4332805727706</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.138866791429061e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287325</v>
+        <v>64921.82232287323</v>
       </c>
       <c r="C2" t="n">
         <v>82104.1769864283</v>
@@ -26320,34 +26320,34 @@
         <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642843</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642839</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642833</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642841</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>195850.9371862247</v>
+        <v>195850.9371862248</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
-        <v>6.252776074688882e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,25 +26424,25 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682765</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977622</v>
@@ -26457,7 +26457,7 @@
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-719756.3271911875</v>
+        <v>-720185.8860577763</v>
       </c>
       <c r="C6" t="n">
         <v>-210677.3165400145</v>
@@ -26528,40 +26528,40 @@
         <v>-366481.1226338094</v>
       </c>
       <c r="E6" t="n">
-        <v>-797138.0978023956</v>
+        <v>-797172.8357278312</v>
       </c>
       <c r="F6" t="n">
-        <v>-26085.40642158924</v>
+        <v>-26120.14434702494</v>
       </c>
       <c r="G6" t="n">
-        <v>-26085.40642158924</v>
+        <v>-26120.14434702497</v>
       </c>
       <c r="H6" t="n">
-        <v>-26085.40642158918</v>
+        <v>-26120.14434702491</v>
       </c>
       <c r="I6" t="n">
-        <v>-26085.40642158927</v>
+        <v>-26120.14434702491</v>
       </c>
       <c r="J6" t="n">
-        <v>-230579.2718834879</v>
+        <v>-230579.271883488</v>
       </c>
       <c r="K6" t="n">
         <v>-34728.33469726323</v>
       </c>
       <c r="L6" t="n">
-        <v>-34728.33469726323</v>
+        <v>-34728.33469726326</v>
       </c>
       <c r="M6" t="n">
-        <v>-158936.8454053217</v>
+        <v>-158936.8454053218</v>
       </c>
       <c r="N6" t="n">
-        <v>-34728.3346972633</v>
+        <v>-34728.33469726324</v>
       </c>
       <c r="O6" t="n">
-        <v>-54156.05269089492</v>
+        <v>-54156.05269089497</v>
       </c>
       <c r="P6" t="n">
-        <v>-34728.33469726332</v>
+        <v>-34728.33469726324</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>135.3020022742393</v>
+        <v>180.3999539998952</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>139.8379470282004</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>59.20396366532799</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>164.2433570368219</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>35.73798850654752</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>65.76172897877444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2056153374513</v>
+        <v>164.1418338117584</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0134444028207</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.5886247944402</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31850,10 +31850,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>357.9244589488886</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,7 +33509,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N36" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34778,13 +34778,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>228.3679864663302</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016747</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N36" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
